--- a/data/tony/excel/802576637_2025_invoices.xlsx
+++ b/data/tony/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,6 +931,60 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>400011174046739</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>800916954</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TΔA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60008</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>03/10/2025</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Τιμολόγιο Πώλησης</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>28,86</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>6,93</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>35,79</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>60008</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/tony/excel/802576637_2025_invoices.xlsx
+++ b/data/tony/excel/802576637_2025_invoices.xlsx
@@ -934,7 +934,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>400011174046739</t>
+          <t>400011615024455</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -942,7 +942,11 @@
           <t>800916954</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ΑΦΟΙ ΛΑΓΟΥ ΧΡΩΜΑΤΑ ΟΕ||ΑΦΟΙ ΛΑΓΟΥ ΧΡΩΜΑΤΑ ΟΕ</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>TΔA</t>
@@ -950,12 +954,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>60008</t>
+          <t>60984</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>03/10/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -966,22 +970,22 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>28,86</t>
+          <t>104,99</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>6,93</t>
+          <t>23,91</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>35,79</t>
+          <t>128,90</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>60008</t>
+          <t>60984</t>
         </is>
       </c>
     </row>

--- a/data/tony/excel/802576637_2025_invoices.xlsx
+++ b/data/tony/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -934,32 +934,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>400011615024455</t>
+          <t>400011631965627</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>800916954</t>
+          <t>094173365</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ΑΦΟΙ ΛΑΓΟΥ ΧΡΩΜΑΤΑ ΟΕ||ΑΦΟΙ ΛΑΓΟΥ ΧΡΩΜΑΤΑ ΟΕ</t>
+          <t>JUMBO ΑΝΩΝΥΜΗ ΕΜΠΟΡΙΚΗ ΕΤΑΙΡΕΙΑ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TΔA</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>60984</t>
+          <t>10806</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -970,20 +970,78 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
+          <t>4,42</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>5,48</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>10806</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>400011615024455</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>800916954</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ΑΦΟΙ ΛΑΓΟΥ ΧΡΩΜΑΤΑ ΙΚΕ</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>TΔA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60984</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Τιμολόγιο Πώλησης</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>104,99</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>23,91</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>128,90</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>60984</t>
         </is>

--- a/data/tony/excel/802576637_2025_invoices.xlsx
+++ b/data/tony/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,27 +556,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>400011186892779</t>
+          <t>400011184830173</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>094439854</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
+          <t>800916954</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8Μ0ΤΔΑ</t>
+          <t>TΔA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8970</t>
+          <t>60038</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -586,35 +582,35 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Τιμολόγιο Πώλησης</t>
+          <t>Πιστωτικό Τιμολόγιο / Συσχετιζόμενο</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>48,39</t>
+          <t>-18,30</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>11,61</t>
+          <t>-4,39</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>60,00</t>
+          <t>-22,69</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>8970</t>
+          <t>60038</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>400011184830173</t>
+          <t>400009073184486</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -630,66 +626,70 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>60038</t>
+          <t>56096</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>04/10/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Πιστωτικό Τιμολόγιο / Συσχετιζόμενο</t>
+          <t>Τιμολόγιο Πώλησης</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-18,30</t>
+          <t>129,99</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-4,39</t>
+          <t>29,66</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-22,69</t>
+          <t>159,65</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>60038</t>
+          <t>56096</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>400009073184486</t>
+          <t>400011213160102</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>800916954</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>094439854</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TΔA</t>
+          <t>8Μ0ΤΔΑ</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>56096</t>
+          <t>9036</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
+          <t>07/10/2025</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -700,99 +700,91 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>129,99</t>
+          <t>64,52</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>29,66</t>
+          <t>15,48</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>159,65</t>
+          <t>80,00</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>56096</t>
+          <t>9036</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>400011213160102</t>
+          <t>400011219241352</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>094439854</t>
+          <t>115333562</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8Μ0ΤΔΑ</t>
+          <t>ΑΛΠ</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9036</t>
+          <t>36671</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>07/10/2025</t>
+          <t>10/10/2025</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Τιμολόγιο Πώλησης</t>
+          <t>ΑΠΟΔΕΙΞΗ</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>64,52</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>15,48</t>
-        </is>
-      </c>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>80,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>9036</t>
+          <t>36671</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>400011219241352</t>
+          <t>400011576793993</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>115333562</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
-        </is>
-      </c>
+          <t>998345385</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
           <t>ΑΛΠ</t>
@@ -800,12 +792,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>36671</t>
+          <t>130739</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10/10/2025</t>
+          <t>31/10/2025</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -816,232 +808,74 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>2,60</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>2,60</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>36671</t>
+          <t>130739</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>400011576793993</t>
+          <t>400011615024455</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>998345385</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>800916954</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ΑΦΟΙ ΛΑΓΟΥ ΧΡΩΜΑΤΑ ΙΚΕ</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ΑΛΠ</t>
+          <t>TΔA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>130739</t>
+          <t>60984</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>31/10/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
+          <t>Τιμολόγιο Πώλησης</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2,60</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>104,99</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>23,91</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2,60</t>
+          <t>128,90</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
-        <is>
-          <t>130739</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>400011576793994</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>094439854</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ΑΛΠ</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>8350</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>11/10/2025</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>3,50</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>3,50</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>8350</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>400011631965627</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>094173365</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>JUMBO ΑΝΩΝΥΜΗ ΕΜΠΟΡΙΚΗ ΕΤΑΙΡΕΙΑ</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>10806</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>12/11/2025</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Τιμολόγιο Πώλησης</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>4,42</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>5,48</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>10806</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>400011615024455</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>800916954</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ΑΦΟΙ ΛΑΓΟΥ ΧΡΩΜΑΤΑ ΙΚΕ</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>TΔA</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>60984</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>11/11/2025</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Τιμολόγιο Πώλησης</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>104,99</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>23,91</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>128,90</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
         <is>
           <t>60984</t>
         </is>

--- a/data/tony/excel/802576637_2025_invoices.xlsx
+++ b/data/tony/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,28 +610,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>400009073184486</t>
+          <t>400011213160102</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>800916954</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>094439854</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TΔA</t>
+          <t>8Μ0ΤΔΑ</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>56096</t>
+          <t>9036</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
+          <t>07/10/2025</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -642,99 +646,91 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>129,99</t>
+          <t>64,52</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>29,66</t>
+          <t>15,48</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>159,65</t>
+          <t>80,00</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>56096</t>
+          <t>9036</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>400011213160102</t>
+          <t>400011219241352</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>094439854</t>
+          <t>115333562</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8Μ0ΤΔΑ</t>
+          <t>ΑΛΠ</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9036</t>
+          <t>36671</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>07/10/2025</t>
+          <t>10/10/2025</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Τιμολόγιο Πώλησης</t>
+          <t>ΑΠΟΔΕΙΞΗ</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>64,52</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>15,48</t>
-        </is>
-      </c>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>80,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>9036</t>
+          <t>36671</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>400011219241352</t>
+          <t>400011576793993</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>115333562</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
-        </is>
-      </c>
+          <t>998345385</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
           <t>ΑΛΠ</t>
@@ -742,12 +738,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>36671</t>
+          <t>130739</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10/10/2025</t>
+          <t>31/10/2025</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -758,124 +754,74 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>2,60</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>2,60</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>36671</t>
+          <t>130739</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>400011576793993</t>
+          <t>400011615024455</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>998345385</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>800916954</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ΑΦΟΙ ΛΑΓΟΥ ΧΡΩΜΑΤΑ ΙΚΕ</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ΑΛΠ</t>
+          <t>TΔA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>130739</t>
+          <t>60984</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>31/10/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
+          <t>Τιμολόγιο Πώλησης</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2,60</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>104,99</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>23,91</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2,60</t>
+          <t>128,90</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
-        <is>
-          <t>130739</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>400011615024455</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>800916954</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ΑΦΟΙ ΛΑΓΟΥ ΧΡΩΜΑΤΑ ΙΚΕ</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>TΔA</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>60984</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>11/11/2025</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Τιμολόγιο Πώλησης</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>104,99</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>23,91</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>128,90</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
         <is>
           <t>60984</t>
         </is>

--- a/data/tony/excel/802576637_2025_invoices.xlsx
+++ b/data/tony/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,65 +498,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011185872109</t>
+          <t>400011576793993</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>094439854</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
+          <t>998345385</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8Μ0ΤΔΑ</t>
+          <t>ΑΛΠ</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8962</t>
+          <t>130739</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>04/10/2025</t>
+          <t>31/10/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Τιμολόγιο Πώλησης</t>
+          <t>ΑΠΟΔΕΙΞΗ</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>8,75</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2,10</t>
-        </is>
-      </c>
+          <t>2,60</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>10,85</t>
+          <t>2,60</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8962</t>
+          <t>130739</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>400011184830173</t>
+          <t>400011615024455</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -564,7 +556,11 @@
           <t>800916954</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ΑΦΟΙ ΛΑΓΟΥ ΧΡΩΜΑΤΑ ΙΚΕ</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>TΔA</t>
@@ -572,256 +568,36 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>60038</t>
+          <t>60984</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>04/10/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Πιστωτικό Τιμολόγιο / Συσχετιζόμενο</t>
+          <t>Τιμολόγιο Πώλησης</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-18,30</t>
+          <t>104,99</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-4,39</t>
+          <t>23,91</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-22,69</t>
+          <t>128,90</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
-        <is>
-          <t>60038</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>400011213160102</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>094439854</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8Μ0ΤΔΑ</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>9036</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>07/10/2025</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Τιμολόγιο Πώλησης</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>64,52</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>15,48</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>80,00</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>9036</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>400011219241352</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>115333562</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ΑΛΠ</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>36671</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10/10/2025</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>36671</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>400011576793993</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>998345385</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ΑΛΠ</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>130739</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>31/10/2025</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2,60</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2,60</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>130739</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>400011615024455</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>800916954</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ΑΦΟΙ ΛΑΓΟΥ ΧΡΩΜΑΤΑ ΙΚΕ</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>TΔA</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>60984</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>11/11/2025</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Τιμολόγιο Πώλησης</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>104,99</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>23,91</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>128,90</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
         <is>
           <t>60984</t>
         </is>

--- a/data/tony/excel/802576637_2025_invoices.xlsx
+++ b/data/tony/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,106 +498,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011576793993</t>
+          <t>400011615024455</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>998345385</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>800916954</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ΑΦΟΙ ΛΑΓΟΥ ΧΡΩΜΑΤΑ ΙΚΕ</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ΑΛΠ</t>
+          <t>TΔA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>130739</t>
+          <t>60984</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>31/10/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
+          <t>Τιμολόγιο Πώλησης</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2,60</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>104,99</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>23,91</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2,60</t>
+          <t>128,90</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
-        <is>
-          <t>130739</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>400011615024455</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>800916954</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ΑΦΟΙ ΛΑΓΟΥ ΧΡΩΜΑΤΑ ΙΚΕ</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>TΔA</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>60984</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>11/11/2025</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Τιμολόγιο Πώλησης</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>104,99</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>23,91</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>128,90</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
         <is>
           <t>60984</t>
         </is>

--- a/data/tony/excel/802576637_2025_invoices.xlsx
+++ b/data/tony/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,6 +553,56 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>400011728100415</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>801466788</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ΑΛΠ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61010</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>15/09/2025</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>14,9</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>14,9</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>61010</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/tony/excel/802576637_2025_invoices.xlsx
+++ b/data/tony/excel/802576637_2025_invoices.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>801466788</t>
+          <t>094386010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -572,12 +572,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>61010</t>
+          <t>165</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -588,18 +588,18 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>14,9</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>14,9</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>61010</t>
+          <t>165</t>
         </is>
       </c>
     </row>
